--- a/Sheets/DialogueData.xlsx
+++ b/Sheets/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfdkg\UnityProject\Farm\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AB38B5-F539-4531-82A0-67F2CDA4E796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421332A0-62F5-40D5-8700-62B79F1ECE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>$$DialogueData_Rand$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,6 +901,13 @@
   </si>
   <si>
     <t>그거 알아? 그거 그렇게 나쁜 거 같진 않다.</t>
+  </si>
+  <si>
+    <t>eventSeen_35_memory_oneweek</t>
+  </si>
+  <si>
+    <t>$y '@, 어떻게 생각하나요... 사람을 평가하는 기준은 행동일까요, 아니면 의도일까요?_행동_흠... 하지만 다들 실수해 본 경험이 있지 않나요?_의도_흠... 하지만 의도와 다르게 해를 입히는 경우는 어떤가요?_둘 다_그렇네요... 꼭 하나를 선택할 필요는 없죠. 상황에 따라 다를 수 있기도 하고요.'#$b#어떻게 생각하는지 궁금했어요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1456,7 +1463,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" activeCellId="1" sqref="A5 A6"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1623,6 +1630,12 @@
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:36">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>

--- a/Sheets/DialogueData.xlsx
+++ b/Sheets/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfdkg\UnityProject\Farm\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421332A0-62F5-40D5-8700-62B79F1ECE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9068010-9FED-4361-ABA1-1DFB16FF5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>$$DialogueData_Rand$$</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Sun2</t>
-  </si>
-  <si>
-    <t>Sun_old</t>
   </si>
   <si>
     <r>
@@ -903,10 +900,23 @@
     <t>그거 알아? 그거 그렇게 나쁜 거 같진 않다.</t>
   </si>
   <si>
-    <t>eventSeen_35_memory_oneweek</t>
+    <t>$y '@, 어떻게 생각하나요... 사람을 평가하는 기준은 행동일까요, 아니면 의도일까요?_행동_흠... 하지만 다들 실수해 본 경험이 있지 않나요?_의도_흠... 하지만 의도와 다르게 해를 입히는 경우는 어떤가요?_둘 다_그렇네요... 꼭 하나를 선택할 필요는 없죠. 상황에 따라 다를 수 있기도 하고요.'#$b#어떻게 생각하는지 궁금했어요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$y '@, 어떻게 생각하나요... 사람을 평가하는 기준은 행동일까요, 아니면 의도일까요?_행동_흠... 하지만 다들 실수해 본 경험이 있지 않나요?_의도_흠... 하지만 의도와 다르게 해를 입히는 경우는 어떤가요?_둘 다_그렇네요... 꼭 하나를 선택할 필요는 없죠. 상황에 따라 다를 수 있기도 하고요.'#$b#어떻게 생각하는지 궁금했어요…</t>
+    <t>Thu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#$1 Abigail1#아 안돼, 아빠가 오늘 저녁 요리하시려나 봐...#$e#오늘 아무것도 하기 싫다...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun_old</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventSeen_35_memory_oneweek</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1463,7 +1473,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" activeCellId="1" sqref="A5 A6"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1564,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1575,10 +1585,10 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="12" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1589,10 +1599,10 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1603,10 +1613,10 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1617,10 +1627,10 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1631,10 +1641,10 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1644,6 +1654,12 @@
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="1:36">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>

--- a/Sheets/DialogueData.xlsx
+++ b/Sheets/DialogueData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfdkg\UnityProject\Farm\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9068010-9FED-4361-ABA1-1DFB16FF5C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAB9F4E-C1B5-46DC-BDCF-26DD329AEF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62B5C00F-698F-4EE8-88B3-1AC2C87E7411}"/>
   </bookViews>
@@ -57,202 +57,6 @@
   </si>
   <si>
     <r>
-      <t>$p 17#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>없을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>생각하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?$u|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사악한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>귀신이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나타날지도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몰라</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
@@ -917,6 +721,202 @@
   </si>
   <si>
     <t>eventSeen_35_memory_oneweek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$p 17#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>생각하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사악한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>귀신이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나타날지도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>몰라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,10 +1470,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A3:AJ218"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A6" activeCellId="1" sqref="A5 A6"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1574,7 +1574,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="6" spans="1:36">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1641,10 +1641,10 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
